--- a/Final_Transfer_Plan.xlsx
+++ b/Final_Transfer_Plan.xlsx
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -1741,13 +1741,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2196,22 +2196,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2326,13 +2326,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2480,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2551,10 +2551,10 @@
         <v>3</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2586,7 +2586,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2716,7 +2716,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2965,74 +2965,9 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
         <v>0</v>
       </c>
     </row>
@@ -3043,7 +2978,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4115,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4145,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4180,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -4204,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -4227,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4236,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4269,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4292,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4301,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4334,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4351,13 +4286,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4366,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4384,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4399,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -4416,13 +4351,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4434,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4464,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -4481,13 +4416,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4611,7 +4546,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4662,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -4676,7 +4611,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4727,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -4768,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -4789,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4806,22 +4741,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4833,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4854,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -4863,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -4895,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4928,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4942,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4960,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -4984,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -5028,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -5049,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -5058,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -5090,16 +5025,16 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -5158,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -5179,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -5188,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -5196,7 +5131,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5223,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34">
         <v>3</v>
@@ -5261,7 +5196,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5282,16 +5217,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -5318,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -5326,7 +5261,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5341,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5353,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>3</v>
@@ -5412,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -5456,7 +5391,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5471,22 +5406,22 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>2</v>
@@ -5542,19 +5477,19 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5575,74 +5510,9 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="U40">
         <v>0</v>
       </c>
     </row>
@@ -5653,7 +5523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6846,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6858,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -6888,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -6923,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -7156,13 +7026,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -7351,7 +7221,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7378,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -7443,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -7508,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -7529,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -7538,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -7546,7 +7416,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7570,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -7603,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -7635,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -7668,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -7703,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -7724,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -7768,10 +7638,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7806,7 +7676,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7833,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -7854,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -7863,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -7871,7 +7741,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7898,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -7963,10 +7833,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -8028,10 +7898,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -8087,16 +7957,16 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -8152,16 +8022,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -8188,71 +8058,6 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
         <v>0</v>
       </c>
     </row>
